--- a/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_2018.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_2018.xlsx
@@ -2322,16 +2322,16 @@
         <v>76304</v>
       </c>
       <c r="G57" t="n">
-        <v>223964</v>
+        <v>222884</v>
       </c>
       <c r="H57" t="n">
-        <v>38855</v>
+        <v>38567</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>378941</v>
+        <v>377573</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -5182,16 +5182,16 @@
         <v>5087542.31</v>
       </c>
       <c r="G150" t="n">
-        <v>11970239.51</v>
+        <v>11969159.51</v>
       </c>
       <c r="H150" t="n">
-        <v>1144448.92</v>
+        <v>1144160.92</v>
       </c>
       <c r="I150" t="n">
         <v>72369438.08</v>
       </c>
       <c r="J150" t="n">
-        <v>181446860.39</v>
+        <v>181445492.39</v>
       </c>
     </row>
   </sheetData>

--- a/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_2018.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_2018.xlsx
@@ -3761,10 +3761,10 @@
         <v>3674989.56</v>
       </c>
       <c r="D104" t="n">
-        <v>6136683.78</v>
+        <v>6137283.62</v>
       </c>
       <c r="E104" t="n">
-        <v>33837.45</v>
+        <v>30345.45</v>
       </c>
       <c r="F104" t="n">
         <v>10312.19</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>10876984.08</v>
+        <v>10874091.92</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3797,10 +3797,10 @@
         <v>49394.4</v>
       </c>
       <c r="F105" t="n">
-        <v>36938.77</v>
+        <v>37644.77</v>
       </c>
       <c r="G105" t="n">
-        <v>623089.75</v>
+        <v>612121.89</v>
       </c>
       <c r="H105" t="n">
         <v>22986.47</v>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>732409.39</v>
+        <v>722147.53</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -5173,16 +5173,16 @@
         <v>23813098.37</v>
       </c>
       <c r="D150" t="n">
-        <v>65070435.34</v>
+        <v>65071035.18</v>
       </c>
       <c r="E150" t="n">
-        <v>1991657.86</v>
+        <v>1988165.86</v>
       </c>
       <c r="F150" t="n">
-        <v>5087542.31</v>
+        <v>5088248.31</v>
       </c>
       <c r="G150" t="n">
-        <v>11969159.51</v>
+        <v>11958191.65</v>
       </c>
       <c r="H150" t="n">
         <v>1144160.92</v>
@@ -5191,7 +5191,7 @@
         <v>72369438.08</v>
       </c>
       <c r="J150" t="n">
-        <v>181445492.39</v>
+        <v>181432338.37</v>
       </c>
     </row>
   </sheetData>

--- a/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_2018.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_2018.xlsx
@@ -137,9 +137,6 @@
     <t>Grünenthal Pharma AG</t>
   </si>
   <si>
-    <t>Hoffmann-La Roche</t>
-  </si>
-  <si>
     <t>Janssen Pharmaceutica</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>Recordati</t>
+  </si>
+  <si>
+    <t>Roche Pharma AG</t>
   </si>
   <si>
     <t>Sandoz Pharmaceuticals AG</t>
@@ -2834,28 +2834,28 @@
         <v>11</v>
       </c>
       <c r="C74" t="n">
-        <v>1720736.37</v>
+        <v>1568158</v>
       </c>
       <c r="D74" t="n">
-        <v>3885991.97</v>
+        <v>1337405</v>
       </c>
       <c r="E74" t="n">
-        <v>33017.05</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>98754.64999999999</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>434367.95</v>
+        <v>114691</v>
       </c>
       <c r="H74" t="n">
-        <v>24690.93</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>6197558.92</v>
+        <v>3020254</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2870,22 +2870,22 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>61337.72</v>
+        <v>55167</v>
       </c>
       <c r="F75" t="n">
-        <v>192161.44</v>
+        <v>134252</v>
       </c>
       <c r="G75" t="n">
-        <v>322629.64</v>
+        <v>221637</v>
       </c>
       <c r="H75" t="n">
-        <v>65430.18</v>
+        <v>10922</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>641558.98</v>
+        <v>421978</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2912,10 +2912,10 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>13045956.79</v>
+        <v>621414</v>
       </c>
       <c r="J76" t="n">
-        <v>13045956.79</v>
+        <v>621414</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2926,10 +2926,10 @@
         <v>11</v>
       </c>
       <c r="C77" t="n">
-        <v>1568158</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>1337405</v>
+        <v>439425.93</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>114691</v>
+        <v>1400</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>3020254</v>
+        <v>440825.93</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2962,152 +2962,152 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>55167</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>134252</v>
+        <v>500</v>
       </c>
       <c r="G78" t="n">
-        <v>221637</v>
+        <v>16349.9</v>
       </c>
       <c r="H78" t="n">
-        <v>10922</v>
+        <v>2847.51</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>421978</v>
+        <v>19697.41</v>
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="1" t="n"/>
+      <c r="A79" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B79" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>374575</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>2108</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2533</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>621414</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>621414</v>
+        <v>379880</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A80" s="1" t="n"/>
       <c r="B80" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>439425.93</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>39836</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>103698</v>
       </c>
       <c r="G80" t="n">
-        <v>1400</v>
+        <v>98323</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>9966</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>440825.93</v>
+        <v>251823</v>
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="1" t="n"/>
+      <c r="A81" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B81" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>2327831.07</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>4351158.95</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>29381.83</v>
       </c>
       <c r="F81" t="n">
-        <v>500</v>
+        <v>141438.6</v>
       </c>
       <c r="G81" t="n">
-        <v>16349.9</v>
+        <v>449960.08</v>
       </c>
       <c r="H81" t="n">
-        <v>2847.51</v>
+        <v>-387.35</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>19697.41</v>
+        <v>7299383.18</v>
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A82" s="1" t="n"/>
       <c r="B82" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>374575</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>664</v>
+        <v>14412.45</v>
       </c>
       <c r="F82" t="n">
-        <v>2108</v>
+        <v>105487.68</v>
       </c>
       <c r="G82" t="n">
-        <v>2533</v>
+        <v>398357.24</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>10679.76</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>379880</v>
+        <v>528937.13</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="1" t="n"/>
       <c r="B83" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -3116,22 +3116,22 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>39836</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>103698</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>98323</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>9966</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>2800731.4</v>
       </c>
       <c r="J83" t="n">
-        <v>251823</v>
+        <v>2800731.4</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3142,28 +3142,28 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>2327831.07</v>
+        <v>25600</v>
       </c>
       <c r="D84" t="n">
-        <v>4351158.95</v>
+        <v>340190</v>
       </c>
       <c r="E84" t="n">
-        <v>29381.83</v>
+        <v>787</v>
       </c>
       <c r="F84" t="n">
-        <v>141438.6</v>
+        <v>795</v>
       </c>
       <c r="G84" t="n">
-        <v>449960.08</v>
+        <v>6250</v>
       </c>
       <c r="H84" t="n">
-        <v>-387.35</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>7299383.18</v>
+        <v>373622</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3178,34 +3178,36 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>14412.45</v>
+        <v>2873</v>
       </c>
       <c r="F85" t="n">
-        <v>105487.68</v>
+        <v>5020</v>
       </c>
       <c r="G85" t="n">
-        <v>398357.24</v>
+        <v>26191</v>
       </c>
       <c r="H85" t="n">
-        <v>10679.76</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>528937.13</v>
+        <v>34084</v>
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="1" t="n"/>
+      <c r="A86" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B86" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>681786</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -3214,116 +3216,114 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>38925</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2208</v>
       </c>
       <c r="I86" t="n">
-        <v>2800731.4</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2800731.4</v>
+        <v>722919</v>
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A87" s="1" t="n"/>
       <c r="B87" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C87" t="n">
-        <v>25600</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>340190</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>787</v>
+        <v>9212</v>
       </c>
       <c r="F87" t="n">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>6250</v>
+        <v>83160</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>373622</v>
+        <v>92576</v>
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="1" t="n"/>
+      <c r="A88" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B88" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>3422792.73</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>1071553.54</v>
       </c>
       <c r="E88" t="n">
-        <v>2873</v>
+        <v>12259.92</v>
       </c>
       <c r="F88" t="n">
-        <v>5020</v>
+        <v>48378.1</v>
       </c>
       <c r="G88" t="n">
-        <v>26191</v>
+        <v>64370.7</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>546.55</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>34084</v>
+        <v>4619901.54</v>
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A89" s="1" t="n"/>
       <c r="B89" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>681786</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>26102.89</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>74530.31</v>
       </c>
       <c r="G89" t="n">
-        <v>38925</v>
+        <v>341475.11</v>
       </c>
       <c r="H89" t="n">
-        <v>2208</v>
+        <v>25228.55</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>722919</v>
+        <v>467336.86</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="n"/>
       <c r="B90" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -3332,22 +3332,22 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>9212</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>83160</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>365340</v>
       </c>
       <c r="J90" t="n">
-        <v>92576</v>
+        <v>365340</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3358,28 +3358,28 @@
         <v>11</v>
       </c>
       <c r="C91" t="n">
-        <v>3422792.73</v>
+        <v>580060</v>
       </c>
       <c r="D91" t="n">
-        <v>1071553.54</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>12259.92</v>
+        <v>6132</v>
       </c>
       <c r="F91" t="n">
-        <v>48378.1</v>
+        <v>10311</v>
       </c>
       <c r="G91" t="n">
-        <v>64370.7</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>546.55</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>4619901.54</v>
+        <v>596503</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3394,22 +3394,22 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>26102.89</v>
+        <v>38221</v>
       </c>
       <c r="F92" t="n">
-        <v>74530.31</v>
+        <v>80544</v>
       </c>
       <c r="G92" t="n">
-        <v>341475.11</v>
+        <v>29126</v>
       </c>
       <c r="H92" t="n">
-        <v>25228.55</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>467336.86</v>
+        <v>147891</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>365340</v>
+        <v>22000</v>
       </c>
       <c r="J93" t="n">
-        <v>365340</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3450,19 +3450,19 @@
         <v>11</v>
       </c>
       <c r="C94" t="n">
-        <v>580060</v>
+        <v>54900</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>260345</v>
       </c>
       <c r="E94" t="n">
-        <v>6132</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>10311</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>23850</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>596503</v>
+        <v>339095</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>38221</v>
+        <v>8176</v>
       </c>
       <c r="F95" t="n">
-        <v>80544</v>
+        <v>18952</v>
       </c>
       <c r="G95" t="n">
-        <v>29126</v>
+        <v>1332</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3501,19 +3501,21 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>147891</v>
+        <v>28460</v>
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="1" t="n"/>
+      <c r="A96" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B96" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>16600</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -3528,24 +3530,22 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>22000</v>
+        <v>16600</v>
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A97" s="1" t="n"/>
       <c r="B97" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C97" t="n">
-        <v>54900</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>260345</v>
+        <v>2500</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>23850</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3563,28 +3563,30 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>339095</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="1" t="n"/>
+      <c r="A98" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B98" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>66871.12</v>
       </c>
       <c r="E98" t="n">
-        <v>8176</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>18952</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3593,30 +3595,28 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>28460</v>
+        <v>66871.12</v>
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A99" s="1" t="n"/>
       <c r="B99" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>16600</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>2686.15</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>3642.85</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>14700</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3625,19 +3625,19 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>16600</v>
+        <v>21029</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="1" t="n"/>
       <c r="B100" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -3652,10 +3652,10 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>2671.54</v>
       </c>
       <c r="J100" t="n">
-        <v>2500</v>
+        <v>2671.54</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3666,28 +3666,28 @@
         <v>11</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>3674989.56</v>
       </c>
       <c r="D101" t="n">
-        <v>66871.12</v>
+        <v>6137283.62</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>30345.45</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>10312.19</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1006518.25</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>14642.85</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>66871.12</v>
+        <v>10874091.92</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3702,22 +3702,22 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>2686.15</v>
+        <v>49394.4</v>
       </c>
       <c r="F102" t="n">
-        <v>3642.85</v>
+        <v>37644.77</v>
       </c>
       <c r="G102" t="n">
-        <v>14700</v>
+        <v>612121.89</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>22986.47</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>21029</v>
+        <v>722147.53</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3744,10 +3744,10 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>2671.54</v>
+        <v>10822956.91</v>
       </c>
       <c r="J103" t="n">
-        <v>2671.54</v>
+        <v>10822956.91</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3758,28 +3758,28 @@
         <v>11</v>
       </c>
       <c r="C104" t="n">
-        <v>3674989.56</v>
+        <v>1451821</v>
       </c>
       <c r="D104" t="n">
-        <v>6137283.62</v>
+        <v>513528</v>
       </c>
       <c r="E104" t="n">
-        <v>30345.45</v>
+        <v>44012</v>
       </c>
       <c r="F104" t="n">
-        <v>10312.19</v>
+        <v>39048</v>
       </c>
       <c r="G104" t="n">
-        <v>1006518.25</v>
+        <v>50786</v>
       </c>
       <c r="H104" t="n">
-        <v>14642.85</v>
+        <v>4316</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>10874091.92</v>
+        <v>2103511</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3794,22 +3794,22 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>49394.4</v>
+        <v>82794</v>
       </c>
       <c r="F105" t="n">
-        <v>37644.77</v>
+        <v>251867</v>
       </c>
       <c r="G105" t="n">
-        <v>612121.89</v>
+        <v>157451</v>
       </c>
       <c r="H105" t="n">
-        <v>22986.47</v>
+        <v>27856</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>722147.53</v>
+        <v>519968</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3836,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>10822956.91</v>
+        <v>462354</v>
       </c>
       <c r="J106" t="n">
-        <v>10822956.91</v>
+        <v>462354</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3850,28 +3850,28 @@
         <v>11</v>
       </c>
       <c r="C107" t="n">
-        <v>1451821</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>513528</v>
+        <v>137166</v>
       </c>
       <c r="E107" t="n">
-        <v>44012</v>
+        <v>2760.07</v>
       </c>
       <c r="F107" t="n">
-        <v>39048</v>
+        <v>4565.58</v>
       </c>
       <c r="G107" t="n">
-        <v>50786</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2103511</v>
+        <v>144491.65</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3886,22 +3886,22 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>82794</v>
+        <v>12887.24</v>
       </c>
       <c r="F108" t="n">
-        <v>251867</v>
+        <v>29315.79</v>
       </c>
       <c r="G108" t="n">
-        <v>157451</v>
+        <v>19071.1</v>
       </c>
       <c r="H108" t="n">
-        <v>27856</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>519968</v>
+        <v>61274.13</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3928,10 +3928,10 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>462354</v>
+        <v>19.92</v>
       </c>
       <c r="J109" t="n">
-        <v>462354</v>
+        <v>19.92</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>137166</v>
+        <v>95841.36</v>
       </c>
       <c r="E110" t="n">
-        <v>2760.07</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>4565.58</v>
+        <v>1600</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>3817.79</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>144491.65</v>
+        <v>101259.15</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3978,22 +3978,22 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>12887.24</v>
+        <v>11511.21</v>
       </c>
       <c r="F111" t="n">
-        <v>29315.79</v>
+        <v>24342.71</v>
       </c>
       <c r="G111" t="n">
-        <v>19071.1</v>
+        <v>12735</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1248.53</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>61274.13</v>
+        <v>49837.45</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -4020,10 +4020,10 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>19.92</v>
+        <v>26714.2</v>
       </c>
       <c r="J112" t="n">
-        <v>19.92</v>
+        <v>26714.2</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4034,28 +4034,28 @@
         <v>11</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1054953</v>
       </c>
       <c r="D113" t="n">
-        <v>95841.36</v>
+        <v>5568520</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>27415</v>
       </c>
       <c r="F113" t="n">
-        <v>1600</v>
+        <v>59737</v>
       </c>
       <c r="G113" t="n">
-        <v>3817.79</v>
+        <v>349125</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>12186</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>101259.15</v>
+        <v>7071936</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4070,22 +4070,22 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>11511.21</v>
+        <v>53184</v>
       </c>
       <c r="F114" t="n">
-        <v>24342.71</v>
+        <v>172181</v>
       </c>
       <c r="G114" t="n">
-        <v>12735</v>
+        <v>288671</v>
       </c>
       <c r="H114" t="n">
-        <v>1248.53</v>
+        <v>19569</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>49837.45</v>
+        <v>533605</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4112,10 +4112,10 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>26714.2</v>
+        <v>5018376</v>
       </c>
       <c r="J115" t="n">
-        <v>26714.2</v>
+        <v>5018376</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4126,28 +4126,28 @@
         <v>11</v>
       </c>
       <c r="C116" t="n">
-        <v>1054953</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>5568520</v>
+        <v>127741.99</v>
       </c>
       <c r="E116" t="n">
-        <v>27415</v>
+        <v>5571.38</v>
       </c>
       <c r="F116" t="n">
-        <v>59737</v>
+        <v>673</v>
       </c>
       <c r="G116" t="n">
-        <v>349125</v>
+        <v>7700</v>
       </c>
       <c r="H116" t="n">
-        <v>12186</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>7071936</v>
+        <v>141686.37</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4162,34 +4162,36 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>53184</v>
+        <v>16806.96</v>
       </c>
       <c r="F117" t="n">
-        <v>172181</v>
+        <v>29590.83</v>
       </c>
       <c r="G117" t="n">
-        <v>288671</v>
+        <v>23147.29</v>
       </c>
       <c r="H117" t="n">
-        <v>19569</v>
+        <v>1030.29</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>533605</v>
+        <v>70575.37</v>
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="1" t="n"/>
+      <c r="A118" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B118" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>17700</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -4204,110 +4206,108 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>5018376</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>5018376</v>
+        <v>17700</v>
       </c>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A119" s="1" t="n"/>
       <c r="B119" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>127741.99</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>5571.38</v>
+        <v>2796.79</v>
       </c>
       <c r="F119" t="n">
-        <v>673</v>
+        <v>7528.79</v>
       </c>
       <c r="G119" t="n">
-        <v>7700</v>
+        <v>34700</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1118.3</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>141686.37</v>
+        <v>46143.88</v>
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="1" t="n"/>
+      <c r="A120" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B120" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1720736.37</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>3885991.97</v>
       </c>
       <c r="E120" t="n">
-        <v>16806.96</v>
+        <v>33017.05</v>
       </c>
       <c r="F120" t="n">
-        <v>29590.83</v>
+        <v>98754.64999999999</v>
       </c>
       <c r="G120" t="n">
-        <v>23147.29</v>
+        <v>434367.95</v>
       </c>
       <c r="H120" t="n">
-        <v>1030.29</v>
+        <v>24690.93</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>70575.37</v>
+        <v>6197558.92</v>
       </c>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A121" s="1" t="n"/>
       <c r="B121" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>17700</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>61337.72</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>192161.44</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>322629.64</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>65430.18</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>17700</v>
+        <v>641558.98</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="1" t="n"/>
       <c r="B122" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -4316,22 +4316,22 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>2796.79</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>7528.79</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>34700</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>1118.3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>13045956.79</v>
       </c>
       <c r="J122" t="n">
-        <v>46143.88</v>
+        <v>13045956.79</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -5224,24 +5224,24 @@
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="A72:A73"/>
     <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A90"/>
     <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A100"/>
     <mergeCell ref="A101:A103"/>
     <mergeCell ref="A104:A106"/>
     <mergeCell ref="A107:A109"/>
     <mergeCell ref="A110:A112"/>
     <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A122"/>
     <mergeCell ref="A123:A125"/>
     <mergeCell ref="A126:A128"/>
     <mergeCell ref="A129:A131"/>
